--- a/biology/Écologie/Oxofragmentation/Oxofragmentation.xlsx
+++ b/biology/Écologie/Oxofragmentation/Oxofragmentation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oxofragmentation ou oxodégradation est un processus de dégradation des matières plastiques non assimilables par les microorganismes. L'oxofragmentation est un processus à distinguer de la biofragmentation. 
 </t>
@@ -511,9 +523,11 @@
           <t>Plastique oxofragmentable</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un plastique oxofragmentable, plastique oxodégradable ou oxoplastique est dégradable selon une typologie de dégradation d'un polymère, non assimilable par les microorganismes et non compostable conformément aux normes en vigueur applicables en France pour la valorisation organique des plastiques[1]. Pour d’autres applications, telles que le paillage agricole, les plastiques oxo sont toujours autorisés[2].   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un plastique oxofragmentable, plastique oxodégradable ou oxoplastique est dégradable selon une typologie de dégradation d'un polymère, non assimilable par les microorganismes et non compostable conformément aux normes en vigueur applicables en France pour la valorisation organique des plastiques. Pour d’autres applications, telles que le paillage agricole, les plastiques oxo sont toujours autorisés.   
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Dégradation d'un oxoplastique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oxoplastiques ou plastiques oxodégradables sont des plastiques traditionnels qui contiennent des additifs destinés à accélérer la fragmentation de la matière en très petits débris, sous l’effet du rayonnement ultraviolet ou de la chaleur[3]. Du fait de ces additifs, le plastique finit par se fragmenter en particules de plastique, puis en microplastiques qui présentent des propriétés similaires à celles des microplastiques résultant de la fragmentation des plastiques traditionnels. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oxoplastiques ou plastiques oxodégradables sont des plastiques traditionnels qui contiennent des additifs destinés à accélérer la fragmentation de la matière en très petits débris, sous l’effet du rayonnement ultraviolet ou de la chaleur. Du fait de ces additifs, le plastique finit par se fragmenter en particules de plastique, puis en microplastiques qui présentent des propriétés similaires à celles des microplastiques résultant de la fragmentation des plastiques traditionnels. 
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rapports et directive européenne
-Le 29 avril 2015, le Parlement européen et le Conseil ont adopté la Directive (UE) 2015/720[4] modifiant la Directive 94/62/CE en ce qui concerne la réduction de la consommation de sacs en plastique légers[5]. Le 20 septembre 2016, la Commission au Parlement Européen et Conseil a examiné dans un rapport l'impact de l'utilisation de plastique oxodégradable, y compris de plastique oxodégradable, sacs de transport, sur l'environnement[6]. Le 16 janvier 2018, dans un rapport final, la Commission européenne a établi une étude examinant les incidences des plastiques dits « oxodégradables » sur l’environnement sans se limiter aux seuls sacs en plastique[7]. Depuis le 30 mai 2018, les plastiques « oxo » ne sont pas valorisables au sens de la directive (UE) 2018/852[8].
-Législations nationales
-Disposition législative française
-En France, depuis le 19 août 2015, la production, la distribution, la vente, la mise à disposition et l’utilisation d’emballages ou de sacs fabriqués, en tout ou partie, à partir de plastique oxofragmentable sont interdites. Un plastique oxofragmentable est dégradable mais non assimilable par les microorganismes et non compostable conformément aux normes en vigueur applicables pour la valorisation organique des plastiques[1].
+          <t>Rapports et directive européenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 avril 2015, le Parlement européen et le Conseil ont adopté la Directive (UE) 2015/720 modifiant la Directive 94/62/CE en ce qui concerne la réduction de la consommation de sacs en plastique légers. Le 20 septembre 2016, la Commission au Parlement Européen et Conseil a examiné dans un rapport l'impact de l'utilisation de plastique oxodégradable, y compris de plastique oxodégradable, sacs de transport, sur l'environnement. Le 16 janvier 2018, dans un rapport final, la Commission européenne a établi une étude examinant les incidences des plastiques dits « oxodégradables » sur l’environnement sans se limiter aux seuls sacs en plastique. Depuis le 30 mai 2018, les plastiques « oxo » ne sont pas valorisables au sens de la directive (UE) 2018/852.
 </t>
         </is>
       </c>
@@ -605,13 +623,59 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Protection de l'environnement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Législations nationales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Disposition législative française</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, depuis le 19 août 2015, la production, la distribution, la vente, la mise à disposition et l’utilisation d’emballages ou de sacs fabriqués, en tout ou partie, à partir de plastique oxofragmentable sont interdites. Un plastique oxofragmentable est dégradable mais non assimilable par les microorganismes et non compostable conformément aux normes en vigueur applicables pour la valorisation organique des plastiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oxofragmentation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxofragmentation</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Guides sur la réglementation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France
-Afin d’accompagner, de prévenir et d'éclairer les acteurs dans la mise en œuvre de la nouvelle réglementation et les citoyens sur ce sujet, le ministère de l'Écologie a édité un guide Questions/Réponses sur les emballages oxofragmentables[9].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin d’accompagner, de prévenir et d'éclairer les acteurs dans la mise en œuvre de la nouvelle réglementation et les citoyens sur ce sujet, le ministère de l'Écologie a édité un guide Questions/Réponses sur les emballages oxofragmentables.
 </t>
         </is>
       </c>
